--- a/biology/Botanique/Sabicea/Sabicea.xlsx
+++ b/biology/Botanique/Sabicea/Sabicea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabicea est un genre botanique de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,12 +579,14 @@
           <t>Liste des variétés, sous-espèces et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (28 juillet 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (28 juillet 2017) :
 Sabicea cinerea Aubl.
 Sabicea villosa Willd. ex Roemer &amp; J.A. Schultes
-Selon Catalogue of Life                                   (28 juillet 2017)[3] :
+Selon Catalogue of Life                                   (28 juillet 2017) :
 Sabicea acuminata Baker
 Sabicea amazonensis Wernham
 Sabicea amomii Wernham
@@ -716,10 +734,10 @@
 Sabicea villosa Willd. ex Schult.
 Sabicea vogelii Benth.
 Sabicea xanthotricha Wernham
-Selon ITIS      (28 juillet 2017)[4] :
+Selon ITIS      (28 juillet 2017) :
 Sabicea cinerea Aubl.
 Sabicea villosa Willd. ex Roem. &amp; Schult.
-Selon World Checklist of Selected Plant Families (WCSP)  (28 juillet 2017)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (28 juillet 2017) :
 Sabicea acuminata Baker, J. Linn. Soc. (1890)
 Sabicea amazonensis Wernham (1914)
 Sabicea amomii Wernham (1919)
@@ -878,7 +896,7 @@
 Sabicea villosa Willd. ex Schult. (1819)
 Sabicea vogelii Benth. (1849)
 Sabicea xanthotricha Wernham (1913)
-Selon NCBI  (28 juillet 2017)[6] :
+Selon NCBI  (28 juillet 2017) :
 Sabicea acuminata
 Sabicea africana
 Sabicea amazonensis
@@ -955,7 +973,7 @@
 Sabicea villosa
 Sabicea vogelii
 Sabicea xanthotricha
-Selon The Plant List            (28 juillet 2017)[7] :
+Selon The Plant List            (28 juillet 2017) :
 Sabicea acuminata Baker
 Sabicea amazonensis Wernham
 Sabicea amomii Wernham
@@ -1104,7 +1122,7 @@
 Sabicea villosa Willd. ex Schult.
 Sabicea vogelii Benth.
 Sabicea xanthotricha Wernham
-Selon Tropicos                                           (28 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Sabicea acuminata Baker
 Sabicea acutissima Rusby
 Sabicea adamsii Hepper
